--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3644777.947152397</v>
+        <v>3642234.137645314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7645475.611544729</v>
+        <v>7645475.611544728</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,13 +716,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858994</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25.67913628361539</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.25920201235136</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>145.4529378261521</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>80.88665239964503</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>148.6865099692908</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.833385075352343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.3234291662958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>214.8534874978417</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>101.4926604386275</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1215,7 +1215,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>145.6686164001064</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>18.47335059662358</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.298290471598</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23.30414408764597</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>177.9413471369465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>81.88270281562022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042195</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>15.76045942438991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>26.13627195705896</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.02686156550261</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>146.5235739004488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.63412424768257</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,19 +3977,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5813113004308</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165018</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
         <v>287.4747669672984</v>
@@ -4328,52 +4328,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822812</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822812</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822812</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672.781252353926</v>
+        <v>218.0341821179661</v>
       </c>
       <c r="C3" t="n">
-        <v>498.3282230727989</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="D3" t="n">
-        <v>349.3938134115477</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>121.6535314649669</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742817</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742817</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>672.781252353926</v>
+        <v>425.79448088292</v>
       </c>
       <c r="Y3" t="n">
-        <v>672.781252353926</v>
+        <v>218.0341821179661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.4777916095494</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="C4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4492,46 +4492,46 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006024</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001375</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>718.4673425075667</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="X4" t="n">
-        <v>490.4777916095494</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.4777916095494</v>
+        <v>101.5373044014854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>690.233069932778</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>690.233069932778</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>690.233069932778</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.5716248254445</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>474.1185955443175</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>325.1841858830662</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>826.7196740428381</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>826.7196740428381</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.7869618455125</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.4926014709343</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>788.4778634388466</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>687.1410663011741</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.95767010589</v>
+        <v>981.855752457622</v>
       </c>
       <c r="C8" t="n">
-        <v>1427.995153165478</v>
+        <v>612.8932355172103</v>
       </c>
       <c r="D8" t="n">
-        <v>1069.729454558727</v>
+        <v>612.8932355172103</v>
       </c>
       <c r="E8" t="n">
-        <v>683.9412019604831</v>
+        <v>227.1049829189661</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151885</v>
+        <v>220.1594821697626</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2351.810676439058</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342781</v>
+        <v>2098.229497964628</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342781</v>
+        <v>1745.460842694514</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081701</v>
+        <v>1371.995084433434</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.95767010589</v>
+        <v>981.855752457622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010759</v>
+        <v>929.5097208010795</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199489</v>
+        <v>755.0566915199526</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587013</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532458</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801308</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.648070876319</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>69.87120530445527</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507234</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331805</v>
+        <v>298.0857543148181</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666617</v>
+        <v>931.8250374996574</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040963</v>
+        <v>1294.891505973959</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513532</v>
+        <v>1842.133061471868</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500921</v>
+        <v>2174.019871459258</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930545</v>
+        <v>2421.055229888882</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2536.272628442627</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.7990111231045</v>
+        <v>388.1345629950719</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8628281951976</v>
+        <v>219.198380067165</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7461887828619</v>
+        <v>219.198380067165</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8330952004687</v>
+        <v>219.198380067165</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025584</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380141</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1126.035066541977</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477362</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.229605994891</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.240055096874</v>
+        <v>608.927142138602</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.447475953344</v>
+        <v>388.1345629950719</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,25 +5042,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.260321675049</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471426</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.908786505289</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,49 +5981,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647281</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368213</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244855</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420924</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239597</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6379,55 +6379,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6783,16 +6783,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349513</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416804</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565604</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7503,13 +7503,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,37 +7661,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211337</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915882</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127214</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458161</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084422</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457979</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348513</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>74.19629618688151</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.73277020259214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>129.6605885985413</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306291</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.74112246243909</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.003342051664</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>678498.1977943943</v>
+        <v>678498.1977943945</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606936</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101745</v>
+        <v>95270.23779101777</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447211</v>
+        <v>141668.8507447209</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680584</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215268.167687567</v>
+        <v>-215268.1676875675</v>
       </c>
       <c r="C6" t="n">
         <v>464819.8129036258</v>
       </c>
       <c r="D6" t="n">
-        <v>154737.9553925901</v>
+        <v>154737.9553925895</v>
       </c>
       <c r="E6" t="n">
-        <v>145980.5316040994</v>
+        <v>145945.7936786645</v>
       </c>
       <c r="F6" t="n">
-        <v>653889.7636647932</v>
+        <v>653855.0257393575</v>
       </c>
       <c r="G6" t="n">
-        <v>653889.7636647931</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="H6" t="n">
-        <v>653889.7636647926</v>
+        <v>653855.0257393577</v>
       </c>
       <c r="I6" t="n">
-        <v>653889.763664793</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="J6" t="n">
-        <v>584890.6092456791</v>
+        <v>584855.871320243</v>
       </c>
       <c r="K6" t="n">
-        <v>653889.7636647932</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="L6" t="n">
-        <v>558619.5258737757</v>
+        <v>558584.7879483397</v>
       </c>
       <c r="M6" t="n">
-        <v>521171.787969324</v>
+        <v>521137.0500438883</v>
       </c>
       <c r="N6" t="n">
-        <v>653889.763664793</v>
+        <v>653855.0257393571</v>
       </c>
       <c r="O6" t="n">
-        <v>653889.7636647926</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="P6" t="n">
-        <v>653889.7636647928</v>
+        <v>653855.0257393573</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26808,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788912</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842355</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.0519643948537</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>135.3858784430496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>60.32004737732535</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727662</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>205.636345936946</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4616579089917</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.849310701952</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,16 +27831,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.261224185799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>192.0225582438698</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>310.056499349622</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.776449164532323</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164528781</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>12.37555977878645</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>263.218854248945</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.30634784682603e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31674,46 +31674,46 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983588</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>707.690770008912</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>361.1081696176606</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>556.7959610899857</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>528.7932908500036</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>535.8585467435946</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877685</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496425</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816846</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216738</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772537</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>552.7692479776862</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>528.6559836563372</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>576.3490579255787</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>222.5537898377864</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>425.4542490066523</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>386.6592569279853</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.2623022991502</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>226.582746865555</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
